--- a/BalanceSheet/UDR_bal.xlsx
+++ b/BalanceSheet/UDR_bal.xlsx
@@ -3966,7 +3966,7 @@
         <v>5060000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>4873000000.0</v>
+        <v>4558971000.0</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>3121176000.0</v>
@@ -4093,7 +4093,7 @@
         <v>5083000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>4906000000.0</v>
+        <v>5180524000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>3935897000.0</v>
